--- a/util/data/result.xlsx
+++ b/util/data/result.xlsx
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'error_msg': 'success'}</t>
+          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="K2" s="0" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>invalid token</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'error_msg': 'success'}</t>
+          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>invalid token</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'error_msg': 'success'}</t>
+          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="K4" s="0" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>invalid token</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 0, 'error_msg': 'success'}</t>
+          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="K5" s="0" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>invalid token</t>
         </is>
       </c>
     </row>

--- a/util/data/result.xlsx
+++ b/util/data/result.xlsx
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
+          <t>{'error_code': 0, 'error_msg': 'success'}</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="K2" s="0" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>invalid token</t>
+          <t>success</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
+          <t>{'error_code': 0, 'error_msg': 'success'}</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>invalid token</t>
+          <t>success</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
+          <t>{'error_code': 0, 'error_msg': 'success'}</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="K4" s="0" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>invalid token</t>
+          <t>success</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'error_code': 105, 'error_msg': 'invalid token'}</t>
+          <t>{'error_code': 0, 'error_msg': 'success'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="K5" s="0" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>invalid token</t>
+          <t>success</t>
         </is>
       </c>
     </row>
